--- a/source/PART 01/CHAPTER 01/크로스-탭-빈셀.xlsx
+++ b/source/PART 01/CHAPTER 01/크로스-탭-빈셀.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최준선\Desktop\CD\PART 01\CHAPTER 01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\source\PART 01\CHAPTER 01\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C553BE96-8AFD-4C15-B805-9E23CEE22D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24990" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="1" r:id="rId1"/>
     <sheet name="피벗" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
   <si>
     <t>고객</t>
   </si>
@@ -58,18 +59,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>O</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>행 레이블</t>
   </si>
   <si>
@@ -174,6 +163,13 @@
   </si>
   <si>
     <t>복합기</t>
+  </si>
+  <si>
+    <t>입금</t>
+  </si>
+  <si>
+    <t>미입금</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -181,8 +177,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -272,7 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -280,10 +276,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
@@ -292,19 +288,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -320,10 +316,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <alignment horizontal="center"/>
+      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="33" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+      <alignment horizontal="center"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -356,22 +352,22 @@
     <cacheField name="분류" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="제품" numFmtId="41">
+    <cacheField name="제품" numFmtId="176">
       <sharedItems/>
     </cacheField>
-    <cacheField name="단가" numFmtId="41">
+    <cacheField name="단가" numFmtId="176">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3500" maxValue="1176000"/>
     </cacheField>
-    <cacheField name="수량" numFmtId="41">
+    <cacheField name="수량" numFmtId="176">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="9"/>
     </cacheField>
     <cacheField name="할인율" numFmtId="9">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.15"/>
     </cacheField>
-    <cacheField name="판매" numFmtId="41">
+    <cacheField name="판매" numFmtId="176">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="7000" maxValue="2998800"/>
     </cacheField>
-    <cacheField name="입금여부" numFmtId="41">
+    <cacheField name="입금여부" numFmtId="176">
       <sharedItems containsBlank="1" count="2">
         <s v="O"/>
         <m/>
@@ -568,10 +564,10 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="41" showAll="0"/>
-    <pivotField numFmtId="41" showAll="0"/>
+    <pivotField numFmtId="176" showAll="0"/>
+    <pivotField numFmtId="176" showAll="0"/>
     <pivotField numFmtId="9" showAll="0"/>
-    <pivotField dataField="1" numFmtId="41" showAll="0"/>
+    <pivotField dataField="1" numFmtId="176" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
         <item x="0"/>
@@ -610,10 +606,10 @@
     <dataField name="매출" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -936,26 +932,26 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J15"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.149999999999999" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:10" ht="20.149999999999999" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -985,21 +981,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:10" ht="20.149999999999999" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="F2" s="9">
         <v>1176000</v>
@@ -1014,24 +1010,24 @@
         <v>2998800</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20.149999999999999" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="F3" s="9">
         <v>48300</v>
@@ -1046,24 +1042,24 @@
         <v>144900</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.149999999999999" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="F4" s="9">
         <v>47400</v>
@@ -1078,24 +1074,24 @@
         <v>142200</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20.149999999999999" customHeight="1">
       <c r="A5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="F5" s="9">
         <v>17800</v>
@@ -1110,24 +1106,24 @@
         <v>160200</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20.149999999999999" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="F6" s="9">
         <v>86500</v>
@@ -1142,24 +1138,24 @@
         <v>605500</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20.149999999999999" customHeight="1">
       <c r="A7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="F7" s="9">
         <v>3500</v>
@@ -1174,24 +1170,24 @@
         <v>7000</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20.149999999999999" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F8" s="9">
         <v>46300</v>
@@ -1206,24 +1202,24 @@
         <v>324100</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="20.149999999999999" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F9" s="9">
         <v>104500</v>
@@ -1237,23 +1233,25 @@
       <c r="I9" s="1">
         <v>836000</v>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="J9" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20.149999999999999" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F10" s="9">
         <v>79800</v>
@@ -1268,24 +1266,24 @@
         <v>79800</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="20.149999999999999" customHeight="1">
       <c r="A11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="F11" s="9">
         <v>89300</v>
@@ -1299,23 +1297,25 @@
       <c r="I11" s="1">
         <v>714400</v>
       </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="J11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="20.149999999999999" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F12" s="9">
         <v>4100</v>
@@ -1329,23 +1329,25 @@
       <c r="I12" s="1">
         <v>28700</v>
       </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="J12" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20.149999999999999" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F13" s="9">
         <v>79500</v>
@@ -1360,24 +1362,24 @@
         <v>159000</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="20.149999999999999" customHeight="1">
       <c r="A14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="F14" s="9">
         <v>165300</v>
@@ -1391,23 +1393,25 @@
       <c r="I14" s="1">
         <v>495900</v>
       </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="J14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="20.149999999999999" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F15" s="9">
         <v>3600</v>
@@ -1422,7 +1426,7 @@
         <v>28800</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1442,24 +1446,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" ht="24" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5">
         <v>10</v>
@@ -1470,7 +1474,7 @@
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="5">
         <v>4</v>
@@ -1481,7 +1485,7 @@
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5">
         <v>14</v>
